--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Plau-Lrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Plau-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.85315674247837</v>
+        <v>11.46594833333333</v>
       </c>
       <c r="H2">
-        <v>4.85315674247837</v>
+        <v>34.397845</v>
       </c>
       <c r="I2">
-        <v>0.01678344864242326</v>
+        <v>0.0374233929424224</v>
       </c>
       <c r="J2">
-        <v>0.01678344864242326</v>
+        <v>0.03742339294242241</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N2">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q2">
-        <v>7.790157873518819</v>
+        <v>20.054528398365</v>
       </c>
       <c r="R2">
-        <v>7.790157873518819</v>
+        <v>180.490755585285</v>
       </c>
       <c r="S2">
-        <v>5.794605890758459E-05</v>
+        <v>0.0001363979165543064</v>
       </c>
       <c r="T2">
-        <v>5.794605890758459E-05</v>
+        <v>0.0001363979165543065</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.85315674247837</v>
+        <v>11.46594833333333</v>
       </c>
       <c r="H3">
-        <v>4.85315674247837</v>
+        <v>34.397845</v>
       </c>
       <c r="I3">
-        <v>0.01678344864242326</v>
+        <v>0.0374233929424224</v>
       </c>
       <c r="J3">
-        <v>0.01678344864242326</v>
+        <v>0.03742339294242241</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N3">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q3">
-        <v>691.2617955015719</v>
+        <v>1640.038264349744</v>
       </c>
       <c r="R3">
-        <v>691.2617955015719</v>
+        <v>14760.3443791477</v>
       </c>
       <c r="S3">
-        <v>0.005141859429942914</v>
+        <v>0.01115447832445083</v>
       </c>
       <c r="T3">
-        <v>0.005141859429942914</v>
+        <v>0.01115447832445083</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.85315674247837</v>
+        <v>11.46594833333333</v>
       </c>
       <c r="H4">
-        <v>4.85315674247837</v>
+        <v>34.397845</v>
       </c>
       <c r="I4">
-        <v>0.01678344864242326</v>
+        <v>0.0374233929424224</v>
       </c>
       <c r="J4">
-        <v>0.01678344864242326</v>
+        <v>0.03742339294242241</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N4">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q4">
-        <v>590.2145913763874</v>
+        <v>1522.733112810046</v>
       </c>
       <c r="R4">
-        <v>590.2145913763874</v>
+        <v>13704.59801529042</v>
       </c>
       <c r="S4">
-        <v>0.004390233167965782</v>
+        <v>0.01035664464054298</v>
       </c>
       <c r="T4">
-        <v>0.004390233167965782</v>
+        <v>0.01035664464054299</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.85315674247837</v>
+        <v>11.46594833333333</v>
       </c>
       <c r="H5">
-        <v>4.85315674247837</v>
+        <v>34.397845</v>
       </c>
       <c r="I5">
-        <v>0.01678344864242326</v>
+        <v>0.0374233929424224</v>
       </c>
       <c r="J5">
-        <v>0.01678344864242326</v>
+        <v>0.03742339294242241</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N5">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q5">
-        <v>606.2276475227342</v>
+        <v>1441.352076872827</v>
       </c>
       <c r="R5">
-        <v>606.2276475227342</v>
+        <v>12972.16869185544</v>
       </c>
       <c r="S5">
-        <v>0.004509344168000951</v>
+        <v>0.009803143529553362</v>
       </c>
       <c r="T5">
-        <v>0.004509344168000951</v>
+        <v>0.009803143529553367</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.85315674247837</v>
+        <v>11.46594833333333</v>
       </c>
       <c r="H6">
-        <v>4.85315674247837</v>
+        <v>34.397845</v>
       </c>
       <c r="I6">
-        <v>0.01678344864242326</v>
+        <v>0.0374233929424224</v>
       </c>
       <c r="J6">
-        <v>0.01678344864242326</v>
+        <v>0.03742339294242241</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N6">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O6">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P6">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q6">
-        <v>255.6016507099172</v>
+        <v>614.4198301551138</v>
       </c>
       <c r="R6">
-        <v>255.6016507099172</v>
+        <v>5529.778471396025</v>
       </c>
       <c r="S6">
-        <v>0.001901259069377824</v>
+        <v>0.004178885838554089</v>
       </c>
       <c r="T6">
-        <v>0.001901259069377824</v>
+        <v>0.004178885838554091</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.85315674247837</v>
+        <v>11.46594833333333</v>
       </c>
       <c r="H7">
-        <v>4.85315674247837</v>
+        <v>34.397845</v>
       </c>
       <c r="I7">
-        <v>0.01678344864242326</v>
+        <v>0.0374233929424224</v>
       </c>
       <c r="J7">
-        <v>0.01678344864242326</v>
+        <v>0.03742339294242241</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N7">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q7">
-        <v>105.2390493524216</v>
+        <v>263.7479378944088</v>
       </c>
       <c r="R7">
-        <v>105.2390493524216</v>
+        <v>2373.73144104968</v>
       </c>
       <c r="S7">
-        <v>0.0007828067482282059</v>
+        <v>0.001793842692766831</v>
       </c>
       <c r="T7">
-        <v>0.0007828067482282059</v>
+        <v>0.001793842692766833</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>113.38268979299</v>
+        <v>113.9117636666667</v>
       </c>
       <c r="H8">
-        <v>113.38268979299</v>
+        <v>341.735291</v>
       </c>
       <c r="I8">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996853</v>
       </c>
       <c r="J8">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996854</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N8">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q8">
-        <v>181.9988721733604</v>
+        <v>199.237484152947</v>
       </c>
       <c r="R8">
-        <v>181.9988721733604</v>
+        <v>1793.137357376523</v>
       </c>
       <c r="S8">
-        <v>0.001353774536960419</v>
+        <v>0.001355084357914852</v>
       </c>
       <c r="T8">
-        <v>0.001353774536960419</v>
+        <v>0.001355084357914853</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>113.38268979299</v>
+        <v>113.9117636666667</v>
       </c>
       <c r="H9">
-        <v>113.38268979299</v>
+        <v>341.735291</v>
       </c>
       <c r="I9">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996853</v>
       </c>
       <c r="J9">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996854</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N9">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q9">
-        <v>16149.71983885998</v>
+        <v>16293.43214723756</v>
       </c>
       <c r="R9">
-        <v>16149.71983885998</v>
+        <v>146640.8893251381</v>
       </c>
       <c r="S9">
-        <v>0.1201275548348882</v>
+        <v>0.1108173752210174</v>
       </c>
       <c r="T9">
-        <v>0.1201275548348882</v>
+        <v>0.1108173752210174</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>113.38268979299</v>
+        <v>113.9117636666667</v>
       </c>
       <c r="H10">
-        <v>113.38268979299</v>
+        <v>341.735291</v>
       </c>
       <c r="I10">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996853</v>
       </c>
       <c r="J10">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996854</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N10">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q10">
-        <v>13788.98755517034</v>
+        <v>15128.0303583401</v>
       </c>
       <c r="R10">
-        <v>13788.98755517034</v>
+        <v>136152.2732250609</v>
       </c>
       <c r="S10">
-        <v>0.1025675600059354</v>
+        <v>0.1028910668682747</v>
       </c>
       <c r="T10">
-        <v>0.1025675600059354</v>
+        <v>0.1028910668682747</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>113.38268979299</v>
+        <v>113.9117636666667</v>
       </c>
       <c r="H11">
-        <v>113.38268979299</v>
+        <v>341.735291</v>
       </c>
       <c r="I11">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996853</v>
       </c>
       <c r="J11">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996854</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N11">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q11">
-        <v>14163.09526980224</v>
+        <v>14319.52703501018</v>
       </c>
       <c r="R11">
-        <v>14163.09526980224</v>
+        <v>128875.7433150916</v>
       </c>
       <c r="S11">
-        <v>0.1053503107565373</v>
+        <v>0.09739215078115172</v>
       </c>
       <c r="T11">
-        <v>0.1053503107565373</v>
+        <v>0.09739215078115174</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>113.38268979299</v>
+        <v>113.9117636666667</v>
       </c>
       <c r="H12">
-        <v>113.38268979299</v>
+        <v>341.735291</v>
       </c>
       <c r="I12">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996853</v>
       </c>
       <c r="J12">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996854</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N12">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O12">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P12">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q12">
-        <v>5971.536509290456</v>
+        <v>6104.130635341498</v>
       </c>
       <c r="R12">
-        <v>5971.536509290456</v>
+        <v>54937.17571807349</v>
       </c>
       <c r="S12">
-        <v>0.04441848444591742</v>
+        <v>0.04151634406440464</v>
       </c>
       <c r="T12">
-        <v>0.04441848444591742</v>
+        <v>0.04151634406440465</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>113.38268979299</v>
+        <v>113.9117636666667</v>
       </c>
       <c r="H13">
-        <v>113.38268979299</v>
+        <v>341.735291</v>
       </c>
       <c r="I13">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996853</v>
       </c>
       <c r="J13">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996854</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N13">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q13">
-        <v>2458.664972098408</v>
+        <v>2620.2797968011</v>
       </c>
       <c r="R13">
-        <v>2458.664972098408</v>
+        <v>23582.5181712099</v>
       </c>
       <c r="S13">
-        <v>0.01828845417774254</v>
+        <v>0.01782144650692207</v>
       </c>
       <c r="T13">
-        <v>0.01828845417774254</v>
+        <v>0.01782144650692208</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>55.6289417036478</v>
+        <v>61.749762</v>
       </c>
       <c r="H14">
-        <v>55.6289417036478</v>
+        <v>185.249286</v>
       </c>
       <c r="I14">
-        <v>0.1923790093041059</v>
+        <v>0.2015433473312409</v>
       </c>
       <c r="J14">
-        <v>0.1923790093041059</v>
+        <v>0.201543347331241</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N14">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q14">
-        <v>89.29409479300837</v>
+        <v>108.003482975862</v>
       </c>
       <c r="R14">
-        <v>89.29409479300837</v>
+        <v>972.0313467827581</v>
       </c>
       <c r="S14">
-        <v>0.00066420231283938</v>
+        <v>0.000734569757308135</v>
       </c>
       <c r="T14">
-        <v>0.00066420231283938</v>
+        <v>0.0007345697573081352</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>55.6289417036478</v>
+        <v>61.749762</v>
       </c>
       <c r="H15">
-        <v>55.6289417036478</v>
+        <v>185.249286</v>
       </c>
       <c r="I15">
-        <v>0.1923790093041059</v>
+        <v>0.2015433473312409</v>
       </c>
       <c r="J15">
-        <v>0.1923790093041059</v>
+        <v>0.201543347331241</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N15">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q15">
-        <v>7923.535992014632</v>
+        <v>8832.411375871641</v>
       </c>
       <c r="R15">
-        <v>7923.535992014632</v>
+        <v>79491.70238284476</v>
       </c>
       <c r="S15">
-        <v>0.05893817439957141</v>
+        <v>0.06007234305832217</v>
       </c>
       <c r="T15">
-        <v>0.05893817439957141</v>
+        <v>0.06007234305832218</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>55.6289417036478</v>
+        <v>61.749762</v>
       </c>
       <c r="H16">
-        <v>55.6289417036478</v>
+        <v>185.249286</v>
       </c>
       <c r="I16">
-        <v>0.1923790093041059</v>
+        <v>0.2015433473312409</v>
       </c>
       <c r="J16">
-        <v>0.1923790093041059</v>
+        <v>0.201543347331241</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N16">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q16">
-        <v>6765.290065523923</v>
+        <v>8200.665533454743</v>
       </c>
       <c r="R16">
-        <v>6765.290065523923</v>
+        <v>73805.9898010927</v>
       </c>
       <c r="S16">
-        <v>0.05032271528107934</v>
+        <v>0.05577561690321921</v>
       </c>
       <c r="T16">
-        <v>0.05032271528107934</v>
+        <v>0.05577561690321923</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>55.6289417036478</v>
+        <v>61.749762</v>
       </c>
       <c r="H17">
-        <v>55.6289417036478</v>
+        <v>185.249286</v>
       </c>
       <c r="I17">
-        <v>0.1923790093041059</v>
+        <v>0.2015433473312409</v>
       </c>
       <c r="J17">
-        <v>0.1923790093041059</v>
+        <v>0.201543347331241</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N17">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q17">
-        <v>6948.838509172059</v>
+        <v>7762.388693690207</v>
       </c>
       <c r="R17">
-        <v>6948.838509172059</v>
+        <v>69861.49824321187</v>
       </c>
       <c r="S17">
-        <v>0.05168801610048701</v>
+        <v>0.05279474163004341</v>
       </c>
       <c r="T17">
-        <v>0.05168801610048701</v>
+        <v>0.05279474163004342</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>55.6289417036478</v>
+        <v>61.749762</v>
       </c>
       <c r="H18">
-        <v>55.6289417036478</v>
+        <v>185.249286</v>
       </c>
       <c r="I18">
-        <v>0.1923790093041059</v>
+        <v>0.2015433473312409</v>
       </c>
       <c r="J18">
-        <v>0.1923790093041059</v>
+        <v>0.201543347331241</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N18">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O18">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P18">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q18">
-        <v>2929.814568370393</v>
+        <v>3308.95248933403</v>
       </c>
       <c r="R18">
-        <v>2929.814568370393</v>
+        <v>29780.57240400627</v>
       </c>
       <c r="S18">
-        <v>0.02179303812881581</v>
+        <v>0.02250535223551523</v>
       </c>
       <c r="T18">
-        <v>0.02179303812881581</v>
+        <v>0.02250535223551524</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>55.6289417036478</v>
+        <v>61.749762</v>
       </c>
       <c r="H19">
-        <v>55.6289417036478</v>
+        <v>185.249286</v>
       </c>
       <c r="I19">
-        <v>0.1923790093041059</v>
+        <v>0.2015433473312409</v>
       </c>
       <c r="J19">
-        <v>0.1923790093041059</v>
+        <v>0.201543347331241</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N19">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q19">
-        <v>1206.294635022138</v>
+        <v>1420.412156020576</v>
       </c>
       <c r="R19">
-        <v>1206.294635022138</v>
+        <v>12783.70940418518</v>
       </c>
       <c r="S19">
-        <v>0.008972863081312904</v>
+        <v>0.009660723746832772</v>
       </c>
       <c r="T19">
-        <v>0.008972863081312904</v>
+        <v>0.009660723746832776</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>62.619790862442</v>
+        <v>63.361323</v>
       </c>
       <c r="H20">
-        <v>62.619790862442</v>
+        <v>190.083969</v>
       </c>
       <c r="I20">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="J20">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N20">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q20">
-        <v>100.5156195668305</v>
+        <v>110.822185354473</v>
       </c>
       <c r="R20">
-        <v>100.5156195668305</v>
+        <v>997.3996681902571</v>
       </c>
       <c r="S20">
-        <v>0.0007476721405545793</v>
+        <v>0.0007537407457348961</v>
       </c>
       <c r="T20">
-        <v>0.0007476721405545793</v>
+        <v>0.0007537407457348963</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>62.619790862442</v>
+        <v>63.361323</v>
       </c>
       <c r="H21">
-        <v>62.619790862442</v>
+        <v>190.083969</v>
       </c>
       <c r="I21">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="J21">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N21">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q21">
-        <v>8919.281070530458</v>
+        <v>9062.921895237061</v>
       </c>
       <c r="R21">
-        <v>8919.281070530458</v>
+        <v>81566.29705713355</v>
       </c>
       <c r="S21">
-        <v>0.06634489245502369</v>
+        <v>0.06164012635198755</v>
       </c>
       <c r="T21">
-        <v>0.06634489245502369</v>
+        <v>0.06164012635198755</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>62.619790862442</v>
+        <v>63.361323</v>
       </c>
       <c r="H22">
-        <v>62.619790862442</v>
+        <v>190.083969</v>
       </c>
       <c r="I22">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="J22">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N22">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q22">
-        <v>7615.47921015159</v>
+        <v>8414.688589086276</v>
       </c>
       <c r="R22">
-        <v>7615.47921015159</v>
+        <v>75732.19730177648</v>
       </c>
       <c r="S22">
-        <v>0.05664673477555599</v>
+        <v>0.05723126314444957</v>
       </c>
       <c r="T22">
-        <v>0.05664673477555599</v>
+        <v>0.05723126314444958</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>62.619790862442</v>
+        <v>63.361323</v>
       </c>
       <c r="H23">
-        <v>62.619790862442</v>
+        <v>190.083969</v>
       </c>
       <c r="I23">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="J23">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N23">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q23">
-        <v>7822.094054913582</v>
+        <v>7964.973488844432</v>
       </c>
       <c r="R23">
-        <v>7822.094054913582</v>
+        <v>71684.76139959988</v>
       </c>
       <c r="S23">
-        <v>0.05818361196856617</v>
+        <v>0.0541725922299543</v>
       </c>
       <c r="T23">
-        <v>0.05818361196856617</v>
+        <v>0.0541725922299543</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>62.619790862442</v>
+        <v>63.361323</v>
       </c>
       <c r="H24">
-        <v>62.619790862442</v>
+        <v>190.083969</v>
       </c>
       <c r="I24">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="J24">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N24">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O24">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P24">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q24">
-        <v>3298.002261385091</v>
+        <v>3395.310373315245</v>
       </c>
       <c r="R24">
-        <v>3298.002261385091</v>
+        <v>30557.7933598372</v>
       </c>
       <c r="S24">
-        <v>0.02453175358168253</v>
+        <v>0.0230927026443155</v>
       </c>
       <c r="T24">
-        <v>0.02453175358168253</v>
+        <v>0.0230927026443155</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>62.619790862442</v>
+        <v>63.361323</v>
       </c>
       <c r="H25">
-        <v>62.619790862442</v>
+        <v>190.083969</v>
       </c>
       <c r="I25">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="J25">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N25">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O25">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P25">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q25">
-        <v>1357.888815609426</v>
+        <v>1457.482433871504</v>
       </c>
       <c r="R25">
-        <v>1357.888815609426</v>
+        <v>13117.34190484354</v>
       </c>
       <c r="S25">
-        <v>0.01010047634165754</v>
+        <v>0.009912851773207505</v>
       </c>
       <c r="T25">
-        <v>0.01010047634165754</v>
+        <v>0.00991285177320751</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>38.43525836184</v>
+        <v>40.18492533333333</v>
       </c>
       <c r="H26">
-        <v>38.43525836184</v>
+        <v>120.554776</v>
       </c>
       <c r="I26">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="J26">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N26">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O26">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P26">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q26">
-        <v>61.69525247917591</v>
+        <v>70.28548383919201</v>
       </c>
       <c r="R26">
-        <v>61.69525247917591</v>
+        <v>632.5693545527281</v>
       </c>
       <c r="S26">
-        <v>0.000458911974894522</v>
+        <v>0.0004780363501571421</v>
       </c>
       <c r="T26">
-        <v>0.000458911974894522</v>
+        <v>0.0004780363501571423</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>38.43525836184</v>
+        <v>40.18492533333333</v>
       </c>
       <c r="H27">
-        <v>38.43525836184</v>
+        <v>120.554776</v>
       </c>
       <c r="I27">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="J27">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N27">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P27">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q27">
-        <v>5474.545149803749</v>
+        <v>5747.873030712019</v>
       </c>
       <c r="R27">
-        <v>5474.545149803749</v>
+        <v>51730.85727640817</v>
       </c>
       <c r="S27">
-        <v>0.04072167995736232</v>
+        <v>0.03909331051991846</v>
       </c>
       <c r="T27">
-        <v>0.04072167995736232</v>
+        <v>0.03909331051991848</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>38.43525836184</v>
+        <v>40.18492533333333</v>
       </c>
       <c r="H28">
-        <v>38.43525836184</v>
+        <v>120.554776</v>
       </c>
       <c r="I28">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="J28">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N28">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O28">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P28">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q28">
-        <v>4674.28758480499</v>
+        <v>5336.75145412737</v>
       </c>
       <c r="R28">
-        <v>4674.28758480499</v>
+        <v>48030.76308714634</v>
       </c>
       <c r="S28">
-        <v>0.03476906991331039</v>
+        <v>0.03629712776344739</v>
       </c>
       <c r="T28">
-        <v>0.03476906991331039</v>
+        <v>0.0362971277634474</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>38.43525836184</v>
+        <v>40.18492533333333</v>
       </c>
       <c r="H29">
-        <v>38.43525836184</v>
+        <v>120.554776</v>
       </c>
       <c r="I29">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="J29">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N29">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O29">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P29">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q29">
-        <v>4801.105238304717</v>
+        <v>5051.533802903595</v>
       </c>
       <c r="R29">
-        <v>4801.105238304717</v>
+        <v>45463.80422613236</v>
       </c>
       <c r="S29">
-        <v>0.03571238625420214</v>
+        <v>0.03435726198257929</v>
       </c>
       <c r="T29">
-        <v>0.03571238625420214</v>
+        <v>0.0343572619825793</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>38.43525836184</v>
+        <v>40.18492533333333</v>
       </c>
       <c r="H30">
-        <v>38.43525836184</v>
+        <v>120.554776</v>
       </c>
       <c r="I30">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="J30">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N30">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O30">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P30">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q30">
-        <v>2024.27327284953</v>
+        <v>2153.368764651035</v>
       </c>
       <c r="R30">
-        <v>2024.27327284953</v>
+        <v>19380.31888185932</v>
       </c>
       <c r="S30">
-        <v>0.01505728898156515</v>
+        <v>0.01464581999821385</v>
       </c>
       <c r="T30">
-        <v>0.01505728898156515</v>
+        <v>0.01464581999821386</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>38.43525836184</v>
+        <v>40.18492533333333</v>
       </c>
       <c r="H31">
-        <v>38.43525836184</v>
+        <v>120.554776</v>
       </c>
       <c r="I31">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="J31">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N31">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O31">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P31">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q31">
-        <v>833.455473673645</v>
+        <v>924.3623713439715</v>
       </c>
       <c r="R31">
-        <v>833.455473673645</v>
+        <v>8319.261342095744</v>
       </c>
       <c r="S31">
-        <v>0.006199548296513118</v>
+        <v>0.00628691431122334</v>
       </c>
       <c r="T31">
-        <v>0.006199548296513118</v>
+        <v>0.006286914311223342</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>14.2434236682336</v>
+        <v>15.710799</v>
       </c>
       <c r="H32">
-        <v>14.2434236682336</v>
+        <v>47.132397</v>
       </c>
       <c r="I32">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146253</v>
       </c>
       <c r="J32">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146254</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N32">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O32">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P32">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q32">
-        <v>22.86316410590335</v>
+        <v>27.47898870174901</v>
       </c>
       <c r="R32">
-        <v>22.86316410590335</v>
+        <v>247.310898315741</v>
       </c>
       <c r="S32">
-        <v>0.000170064622001816</v>
+        <v>0.0001868942880872462</v>
       </c>
       <c r="T32">
-        <v>0.000170064622001816</v>
+        <v>0.0001868942880872463</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>14.2434236682336</v>
+        <v>15.710799</v>
       </c>
       <c r="H33">
-        <v>14.2434236682336</v>
+        <v>47.132397</v>
       </c>
       <c r="I33">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146253</v>
       </c>
       <c r="J33">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146254</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N33">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P33">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q33">
-        <v>2028.769137582955</v>
+        <v>2247.20282827378</v>
       </c>
       <c r="R33">
-        <v>2028.769137582955</v>
+        <v>20224.82545446402</v>
       </c>
       <c r="S33">
-        <v>0.01509073087669915</v>
+        <v>0.01528401853999607</v>
       </c>
       <c r="T33">
-        <v>0.01509073087669915</v>
+        <v>0.01528401853999607</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>14.2434236682336</v>
+        <v>15.710799</v>
       </c>
       <c r="H34">
-        <v>14.2434236682336</v>
+        <v>47.132397</v>
       </c>
       <c r="I34">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146253</v>
       </c>
       <c r="J34">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146254</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N34">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O34">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P34">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q34">
-        <v>1732.207906364509</v>
+        <v>2086.469707564788</v>
       </c>
       <c r="R34">
-        <v>1732.207906364509</v>
+        <v>18778.22736808309</v>
       </c>
       <c r="S34">
-        <v>0.01288479938559221</v>
+        <v>0.01419081593006754</v>
       </c>
       <c r="T34">
-        <v>0.01288479938559221</v>
+        <v>0.01419081593006755</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>14.2434236682336</v>
+        <v>15.710799</v>
       </c>
       <c r="H35">
-        <v>14.2434236682336</v>
+        <v>47.132397</v>
       </c>
       <c r="I35">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146253</v>
       </c>
       <c r="J35">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146254</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N35">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O35">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P35">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q35">
-        <v>1779.204274917641</v>
+        <v>1974.960300680016</v>
       </c>
       <c r="R35">
-        <v>1779.204274917641</v>
+        <v>17774.64270612014</v>
       </c>
       <c r="S35">
-        <v>0.0132343756566816</v>
+        <v>0.01343240114846992</v>
       </c>
       <c r="T35">
-        <v>0.0132343756566816</v>
+        <v>0.01343240114846992</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>14.2434236682336</v>
+        <v>15.710799</v>
       </c>
       <c r="H36">
-        <v>14.2434236682336</v>
+        <v>47.132397</v>
       </c>
       <c r="I36">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146253</v>
       </c>
       <c r="J36">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146254</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N36">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O36">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P36">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q36">
-        <v>750.1596990461179</v>
+        <v>841.8864425821849</v>
       </c>
       <c r="R36">
-        <v>750.1596990461179</v>
+        <v>7576.977983239664</v>
       </c>
       <c r="S36">
-        <v>0.005579963694803452</v>
+        <v>0.005725966448200731</v>
       </c>
       <c r="T36">
-        <v>0.005579963694803452</v>
+        <v>0.005725966448200732</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>14.2434236682336</v>
+        <v>15.710799</v>
       </c>
       <c r="H37">
-        <v>14.2434236682336</v>
+        <v>47.132397</v>
       </c>
       <c r="I37">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146253</v>
       </c>
       <c r="J37">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146254</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N37">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O37">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P37">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q37">
-        <v>308.8637861721331</v>
+        <v>361.391026582352</v>
       </c>
       <c r="R37">
-        <v>308.8637861721331</v>
+        <v>3252.519239241168</v>
       </c>
       <c r="S37">
-        <v>0.00229744241882299</v>
+        <v>0.002457947756641014</v>
       </c>
       <c r="T37">
-        <v>0.00229744241882299</v>
+        <v>0.002457947756641015</v>
       </c>
     </row>
   </sheetData>
